--- a/output/instance_SMALL_scenario_2_B&P w L-SHAPED/master_variables_site1.xlsx
+++ b/output/instance_SMALL_scenario_2_B&P w L-SHAPED/master_variables_site1.xlsx
@@ -618,7 +618,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -636,82 +636,82 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>80000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>80000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -854,7 +854,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -974,12 +974,12 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
